--- a/va_facility_data_2025-02-20/Oscar G. Johnson Department of Veterans Affairs Medical Facility - Facility Data.xlsx"; filename*=UTF-8''Oscar%20G.%20Johnson%20Department%20of%20Veterans%20Affairs%20Medical%20Facility%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Oscar G. Johnson Department of Veterans Affairs Medical Facility - Facility Data.xlsx"; filename*=UTF-8''Oscar%20G.%20Johnson%20Department%20of%20Veterans%20Affairs%20Medical%20Facility%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rc761cd8cb22c4ce990c6422ca8e3b601"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R4f47d59682f840d59daaeb2b53060080"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rbbd4a9c424904496a2f8efefc0172457"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R75ffcd2279874a50b8b38a6259c77952"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R22a7bec8c36645c8a30c12f20bb2ea0e"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R5b44e5985b414057a9677777ba6244b9"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rc957cd038e9a4afa8208fd2558aca40e"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R7ee20cc2018d4c1ab846c044e2fc9523"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R7eb5f09671cc4d34810c602c15b4b23c"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rfbef183509e64397af73e203fc309bff"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rb45eb58bac674c88806a7e80fb28442d"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Reef14d2e6b3e42228094bf0fcc8da558"/>
   </x:sheets>
 </x:workbook>
 </file>
